--- a/doc/PLC设备接入分析/PLC设备接入设计.xlsx
+++ b/doc/PLC设备接入分析/PLC设备接入设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="7605" tabRatio="829" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="7605" tabRatio="829" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="UUID生成规则" sheetId="15" r:id="rId1"/>
@@ -22,30 +22,21 @@
     <sheet name="PLC网关控制命令" sheetId="14" r:id="rId8"/>
     <sheet name="单灯控制器属性" sheetId="7" r:id="rId9"/>
     <sheet name="单灯控制器控制命令" sheetId="10" r:id="rId10"/>
-    <sheet name="错误码和返回值定义" sheetId="17" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId12"/>
+    <sheet name="开关灯JSON例子" sheetId="19" r:id="rId11"/>
+    <sheet name="单灯控制器信号" sheetId="20" r:id="rId12"/>
+    <sheet name="集中器设备数据初始化" sheetId="22" r:id="rId13"/>
+    <sheet name="单灯设备数据初始化" sheetId="21" r:id="rId14"/>
+    <sheet name="错误码和返回值定义" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="t0" localSheetId="10">错误码和返回值定义!#REF!</definedName>
+    <definedName name="t0" localSheetId="14">错误码和返回值定义!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="541">
-  <si>
-    <t>摄像头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="749">
   <si>
     <t>中文名设备类型名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,18 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备属性名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,22 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4字节无符号整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,34 +306,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huazhiyouwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华智有为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pccooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超频三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Huawei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hikvision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海康威视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,46 +322,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tiandy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天地伟业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tecnon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太龙智显</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zklink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科智联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iotcomm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智联信通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruijie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锐捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,22 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务地址（IP或域名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,7 +418,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到指定的服务去校时</t>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>软件升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制命令名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,225 +465,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>month</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unsigned int</t>
-  </si>
-  <si>
-    <t>unsigned int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置网关时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned char int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制命令名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned short int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少秒之后重启，0立即重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少秒之后校时，0立即校时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级文件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级文件MD5校验码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否备份配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_cfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_cfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备控制命令名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,22 +588,6 @@
     <t>16位唯一标识</t>
   </si>
   <si>
-    <t>0x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOT网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOT-Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID-PART4:MD5唯一标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xixun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>熙讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,27 +668,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Colorlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡莱特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x1030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1809,237 +1540,1215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过对：类型标识+MD5唯一标识字串进行crc16的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000-0x2FFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不无需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调光值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_brightness</t>
+  </si>
+  <si>
+    <t>策略不兼容盒子，暂时不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_status</t>
+  </si>
+  <si>
+    <t>plc_node_a_onoff</t>
+  </si>
+  <si>
+    <t>0离线,1在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_brightness</t>
+  </si>
+  <si>
+    <t>plc_node_a_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "data": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "methods": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "in": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "msgId": "1db179ce-c81e-4499-bff2-29e8a954af97",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "type": "request",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "timestamp": 1566205651</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": "plc_node_id"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gwId": "plc_id",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "level": 0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "onoff": 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                "method": "set_brightness",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调灯光（单灯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关灯（单灯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_onoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                "method": "set_brightness",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前端传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应到报文的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从全局关联到出   集中器SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": "plc_node_id"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gwId": "plc_id",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从全局关联到出   节点SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "msgId": "1db179ce-c81e-4499-bff2-29e8a954af97",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调光值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多灯控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_cCode</t>
+  </si>
+  <si>
+    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多灯控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_onoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_a_onoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_voltage_in</t>
+  </si>
+  <si>
+    <t>plc_node_a_electri_in</t>
+  </si>
+  <si>
+    <t>plc_node_id</t>
+  </si>
+  <si>
+    <t>plc_node_sn</t>
+  </si>
+  <si>
+    <t>plc_node_temperature</t>
+  </si>
+  <si>
+    <t>信号编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号编码key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109002</t>
+  </si>
+  <si>
+    <t>来源报文F7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源报文F7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit8</t>
+  </si>
+  <si>
+    <t>current_source_bit0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit7</t>
+  </si>
+  <si>
+    <t>current_source_bit6</t>
+  </si>
+  <si>
+    <t>current_source_bit5</t>
+  </si>
+  <si>
+    <t>current_source_bit4</t>
+  </si>
+  <si>
+    <t>current_source_bit3</t>
+  </si>
+  <si>
+    <t>current_source_bit2</t>
+  </si>
+  <si>
+    <t>current_source_bit1</t>
+  </si>
+  <si>
+    <t>controller_bit9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit10</t>
+  </si>
+  <si>
+    <t>controller_bit11</t>
+  </si>
+  <si>
+    <t>controller_bit12</t>
+  </si>
+  <si>
+    <t>controller_bit13</t>
+  </si>
+  <si>
+    <t>controller_bit14</t>
+  </si>
+  <si>
+    <t>controller_bit15</t>
+  </si>
+  <si>
+    <t>controller_bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit1</t>
+  </si>
+  <si>
+    <t>controller_bit2</t>
+  </si>
+  <si>
+    <t>controller_bit3</t>
+  </si>
+  <si>
+    <t>controller_bit4</t>
+  </si>
+  <si>
+    <t>controller_bit5</t>
+  </si>
+  <si>
+    <t>controller_bit6</t>
+  </si>
+  <si>
+    <t>controller_bit7</t>
+  </si>
+  <si>
+    <t>A灯控制器,继电器状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠压报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过压警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,继电器失效报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,继电器状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠压报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过压警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,继电器失效报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,温度过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,温度过低报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,无法启动报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输出短路报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输出开路报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,功率过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输入电压过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输入电压过低报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,电源状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit7_code</t>
+  </si>
+  <si>
+    <t>current_source_bit6_code</t>
+  </si>
+  <si>
+    <t>current_source_bit4_code</t>
+  </si>
+  <si>
+    <t>current_source_bit3_code</t>
+  </si>
+  <si>
+    <t>current_source_bit2_code</t>
+  </si>
+  <si>
+    <t>current_source_bit1_code</t>
+  </si>
+  <si>
+    <t>current_source_bit0_code</t>
+  </si>
+  <si>
+    <t>controller_bit0_code</t>
+  </si>
+  <si>
+    <t>controller_bit1_code</t>
+  </si>
+  <si>
+    <t>controller_bit2_code</t>
+  </si>
+  <si>
+    <t>controller_bit4_code</t>
+  </si>
+  <si>
+    <t>controller_bit5_code</t>
+  </si>
+  <si>
+    <t>controller_bit6_code</t>
+  </si>
+  <si>
+    <t>controller_bit8_code</t>
+  </si>
+  <si>
+    <t>controller_bit9_code</t>
+  </si>
+  <si>
+    <t>controller_bit10_code</t>
+  </si>
+  <si>
+    <t>controller_bit11_code</t>
+  </si>
+  <si>
+    <t>controller_bit12_code</t>
+  </si>
+  <si>
+    <t>controller_bit13_code</t>
+  </si>
+  <si>
+    <t>controller_bit14_code</t>
+  </si>
+  <si>
+    <t>controller_bit15_code</t>
+  </si>
+  <si>
+    <t>0x109005</t>
+  </si>
+  <si>
+    <t>0x109006</t>
+  </si>
+  <si>
+    <t>0x109007</t>
+  </si>
+  <si>
+    <t>0x109008</t>
+  </si>
+  <si>
+    <t>0x109009</t>
+  </si>
+  <si>
+    <t>0x109010</t>
+  </si>
+  <si>
+    <t>0x109011</t>
+  </si>
+  <si>
+    <t>0x109012</t>
+  </si>
+  <si>
+    <t>0x109013</t>
+  </si>
+  <si>
+    <t>0x109014</t>
+  </si>
+  <si>
+    <t>0x109016</t>
+  </si>
+  <si>
+    <t>0x109018</t>
+  </si>
+  <si>
+    <t>0x109019</t>
+  </si>
+  <si>
+    <t>0x109020</t>
+  </si>
+  <si>
+    <t>0x109021</t>
+  </si>
+  <si>
+    <t>0x109022</t>
+  </si>
+  <si>
+    <t>0x109023</t>
+  </si>
+  <si>
+    <t>0x109024</t>
+  </si>
+  <si>
+    <t>0x109025</t>
+  </si>
+  <si>
+    <t>current_source_bit8_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性、信号、字段上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号数据上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功后上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7命令码的协议中抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC自动配置流程已包含类似操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定义</t>
+  </si>
+  <si>
+    <t>未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_plc_id</t>
+  </si>
+  <si>
+    <t>plc_sn</t>
+  </si>
+  <si>
+    <t>plc_a_voltage</t>
+  </si>
+  <si>
+    <t>集中器，A相电压</t>
+  </si>
+  <si>
+    <t>plc_a_electric</t>
+  </si>
+  <si>
+    <t>集中器，A相电流</t>
+  </si>
+  <si>
+    <t>集中器，A相功率</t>
+  </si>
+  <si>
+    <t>plc_a_power</t>
+  </si>
+  <si>
+    <t>plc_a_pf</t>
+  </si>
+  <si>
+    <t>集中器，A相功率因素</t>
+  </si>
+  <si>
+    <t>集中器，电能</t>
+  </si>
+  <si>
+    <t>plc_elect_energy</t>
+  </si>
+  <si>
+    <t>plc_ad1_in</t>
+  </si>
+  <si>
+    <t>集中器，AD1输入</t>
+  </si>
+  <si>
+    <t>集中器，B相电压</t>
+  </si>
+  <si>
+    <t>plc_b_voltage</t>
+  </si>
+  <si>
+    <t>集中器，B相电流</t>
+  </si>
+  <si>
+    <t>plc_b_electric</t>
+  </si>
+  <si>
+    <t>plc_b_power</t>
+  </si>
+  <si>
+    <t>集中器，B相功率</t>
+  </si>
+  <si>
+    <t>集中器，B相功率因素</t>
+  </si>
+  <si>
+    <t>plc_b_pf</t>
+  </si>
+  <si>
+    <t>plc_all_power</t>
+  </si>
+  <si>
+    <t>集中器，总功率</t>
+  </si>
+  <si>
+    <t>plc_ad2_in</t>
+  </si>
+  <si>
+    <t>集中器，AD2输入</t>
+  </si>
+  <si>
+    <t>集中器，C相电压</t>
+  </si>
+  <si>
+    <t>plc_c_voltage</t>
+  </si>
+  <si>
+    <t>集中器，C相电流</t>
+  </si>
+  <si>
+    <t>plc_c_electric</t>
+  </si>
+  <si>
+    <t>plc_c_power</t>
+  </si>
+  <si>
+    <t>集中器，C相功率</t>
+  </si>
+  <si>
+    <t>集中器，C相功率因素</t>
+  </si>
+  <si>
+    <t>plc_c_pf</t>
+  </si>
+  <si>
+    <t>plc_3_power</t>
+  </si>
+  <si>
+    <t>集中器，三相功率因素</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面根据实际情况考虑拆开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值+单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_longitude</t>
+  </si>
+  <si>
+    <t>plc_cfg_latitude</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_sq</t>
+  </si>
+  <si>
+    <t>时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_gksd_start</t>
+  </si>
+  <si>
+    <t>plc_cfg_gksd_end</t>
+  </si>
+  <si>
+    <t>光控时段开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光控时段结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_systime</t>
+  </si>
+  <si>
+    <t>时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step5_groupAtuo</t>
+  </si>
+  <si>
+    <t>组网数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价于deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器,地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>输入电压</t>
+  </si>
+  <si>
+    <t>plc_node_voltage_out</t>
+  </si>
+  <si>
+    <t>输出电压</t>
+  </si>
+  <si>
+    <t>A路输入电流</t>
+  </si>
+  <si>
+    <t>plc_node_a_electri_out</t>
+  </si>
+  <si>
+    <t>A路输出电流</t>
+  </si>
+  <si>
+    <t>A路有功功率</t>
+  </si>
+  <si>
+    <t>plc_node_a_power</t>
+  </si>
+  <si>
+    <t>A路功率因数</t>
+  </si>
+  <si>
+    <t>plc_node_a_pf</t>
+  </si>
+  <si>
+    <t>A亮度</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>plc_node_type</t>
+  </si>
+  <si>
+    <t>plc_node_devCode</t>
+  </si>
+  <si>
+    <t>设备码</t>
+  </si>
+  <si>
+    <t>节点所属组</t>
+  </si>
+  <si>
+    <t>plc_node_group</t>
+  </si>
+  <si>
+    <t>控制码</t>
+  </si>
+  <si>
+    <t>设备接入自动配置时需要</t>
+  </si>
+  <si>
+    <t>设备接入自动配置时需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 单灯A(01)，单灯B(02),双灯(03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用得上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已重复定义，这里黑底标注取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已重复定义，这里黑底标注取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huazhiyouwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华智有为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超频三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hikvision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地伟业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太龙智显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zklink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xixun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colorlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innosmart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳创智慧能科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC-Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PLC采用私有协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过对：类型标识+MD5唯一标识字串进行crc16的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2000-0x2FFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不无需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点数据上报： 通过节点在线 不在线来判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调光值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_brightness</t>
-  </si>
-  <si>
-    <t>策略不兼容盒子，暂时不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_status</t>
-  </si>
-  <si>
-    <t>plc_node_a_onoff</t>
-  </si>
-  <si>
-    <t>0离线,1在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_brightness</t>
-  </si>
-  <si>
-    <t>plc_node_a_brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "data": {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "methods": [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "in": [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "msgId": "1db179ce-c81e-4499-bff2-29e8a954af97",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "type": "request",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "timestamp": 1566205651</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        "id": "plc_node_id"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gwId": "plc_id",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "level": 0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "level": 0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "onoff": 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                "method": "set_brightness",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调灯光（单灯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关灯（单灯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_onoff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                "method": "set_brightness",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从前端传入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应到报文的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从全局关联到出   集中器SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        "id": "plc_node_id"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gwId": "plc_id",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从全局关联到出   节点SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "msgId": "1db179ce-c81e-4499-bff2-29e8a954af97",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调光值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多灯控制</t>
+    <t>这里的信号编号怎么使用？请看下面的两种消息类型(请开发关注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit5_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit3_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit7_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备地址(sn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光控时段-开始时分</t>
+  </si>
+  <si>
+    <t>光控时段  结束时分</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>组网个数</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>8:10</t>
+  </si>
+  <si>
+    <t>自动取当前系统时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000020004ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_sq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_gksd_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_gksd_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step2_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step5_groupAtuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2047,46 +2756,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_cCode</t>
-  </si>
-  <si>
-    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多灯控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_onoff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_a_onoff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
+    <t>plc_node_devCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010-3f7b3eb6bffe6fb1-2009-ffff-be7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-f82d132f9bb018ca-2001-ffff-d28a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-f82d132f9bb018ca-2001-ffff-d28a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2097,7 +2795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,8 +2863,49 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2176,6 +2915,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,7 +3034,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2359,6 +3116,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2368,9 +3155,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2379,6 +3163,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2401,20 +3197,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2433,6 +3238,781 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6010275" cy="1487366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020425" y="5829300"/>
+          <a:ext cx="6010275" cy="1487366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>信号数据上报</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息体：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> deviceId:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设备</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>signals:[{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>controller_bit3_code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x109015,controller_bit7_code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x109017}],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6010275" cy="1487366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="7496175"/>
+          <a:ext cx="6010275" cy="1487366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>属性上报</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息体：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> deviceId:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设备</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>signals:[{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x109001</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>current_source_bit8,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  ........</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20036117" y="1770529"/>
+          <a:ext cx="9031941" cy="5009030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>构造好</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，并配到到配置文件中，服务启动后会自动载入此设备信息到内存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例子：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_id\":	\"1000-f82d132f9bb018ca-2001-ffff-d28a\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_sn\":	\"000000000100\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_longitude\":	\"3980\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_latitude\":	\"-2546\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_sq\":	\"-8\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_gksd_start\":	\"8:10\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_gksd_end\":	\"8:10\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step2_timestamp\":	\"\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step5_groupAtuo\":	\"1\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_id\":	\"1000-f82d132f9bb018ca-2001-ffff-2222\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_sn\":	\"000000000100\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_longitude\":	\"3980\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_latitude\":	\"-2546\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_sq\":	\"-8\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_gksd_start\":	\"8:10\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step1_gksd_end\":	\"8:10\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step2_timestamp\":	\"\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	\"plc_cfg_step5_groupAtuo\":	\"1\",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2722,10 +4302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,331 +4325,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="L1" s="27"/>
+      <c r="A1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="21" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="99" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="21" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="21" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18"/>
       <c r="G6" s="21" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21"/>
       <c r="F7" s="18"/>
       <c r="G7" s="21" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="21"/>
       <c r="F8" s="18"/>
       <c r="G8" s="21" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="21"/>
       <c r="F9" s="18"/>
       <c r="G9" s="21" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21"/>
       <c r="F10" s="18"/>
       <c r="G10" s="21" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3091,32 +4671,27 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +4716,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3156,157 +4731,157 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>149</v>
+      <c r="A2" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>182</v>
+        <v>108</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="41" t="s">
-        <v>471</v>
+      <c r="H2" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="30"/>
+        <v>110</v>
+      </c>
+      <c r="F3" s="43"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="41" t="s">
-        <v>471</v>
+      <c r="H3" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="F4" s="43"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="41" t="s">
-        <v>471</v>
+      <c r="H4" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="3" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="F5" s="43"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="41" t="s">
-        <v>471</v>
+      <c r="H5" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="F6" s="43"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="41" t="s">
-        <v>471</v>
+      <c r="H6" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="3" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="F7" s="43"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="41" t="s">
-        <v>471</v>
+      <c r="H7" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>526</v>
+        <v>453</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="G8" s="21"/>
     </row>
@@ -3314,16 +4889,16 @@
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>530</v>
+        <v>457</v>
       </c>
       <c r="G9" s="26"/>
     </row>
@@ -3331,16 +4906,16 @@
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
       <c r="G10" s="26"/>
     </row>
@@ -3354,149 +4929,149 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>536</v>
+      <c r="A12" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>463</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="21" t="s">
-        <v>537</v>
+        <v>464</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="21" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="21" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>193</v>
+      <c r="A16" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>189</v>
+        <v>113</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>190</v>
+        <v>114</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="D17" s="43"/>
       <c r="E17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="F17" s="43"/>
       <c r="G17" s="3"/>
       <c r="H17" s="9" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="30"/>
+        <v>125</v>
+      </c>
+      <c r="D18" s="43"/>
       <c r="E18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="30"/>
+        <v>132</v>
+      </c>
+      <c r="F18" s="43"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="9" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3518,10 +5093,969 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F46"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G29" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F30" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F31" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F32" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="K32" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="K33" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="4:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D39" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.75" style="59" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="59" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="59" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="59" customWidth="1"/>
+    <col min="8" max="8" width="26" style="59" customWidth="1"/>
+    <col min="9" max="9" width="27" style="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>713</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="61" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>716</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>717</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="41.375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="59" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="59" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="58" customWidth="1"/>
+    <col min="9" max="9" width="26" style="58" customWidth="1"/>
+    <col min="10" max="10" width="27" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>721</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>740</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>742</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3534,1036 +6068,1036 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
-        <v>409</v>
+      <c r="A2" s="50" t="s">
+        <v>341</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="16">
         <v>10001</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="16">
         <v>10002</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="16">
         <v>10003</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="16">
         <v>10004</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="16">
         <v>10005</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="16">
         <v>10006</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="16">
         <v>10007</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="16">
         <v>10008</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="16">
         <v>10009</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="16">
         <v>10010</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16">
         <v>10011</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="16">
         <v>10012</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="40" t="s">
-        <v>248</v>
+      <c r="A15" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="16">
         <v>20001</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="16">
         <v>20002</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="16">
         <v>20003</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="16">
         <v>20004</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="16">
         <v>20005</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="16">
         <v>20006</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="16">
         <v>20007</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="16">
         <v>20008</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="16">
         <v>20009</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="16">
         <v>20010</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="16">
         <v>20011</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="16">
         <v>20012</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="16">
         <v>20013</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="16">
         <v>20014</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="40" t="s">
-        <v>322</v>
+      <c r="A29" s="53" t="s">
+        <v>254</v>
       </c>
       <c r="B29" s="16">
         <v>20101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="16">
         <v>20102</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="16">
         <v>20103</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="16">
         <v>20104</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="16">
         <v>20105</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="16">
         <v>20106</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="16">
         <v>20107</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="16">
         <v>20108</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="40" t="s">
-        <v>339</v>
+      <c r="A37" s="53" t="s">
+        <v>271</v>
       </c>
       <c r="B37" s="16">
         <v>20201</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="16">
         <v>20202</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="16">
         <v>20203</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="16">
         <v>20204</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="16">
         <v>20205</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="16">
         <v>20206</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="16">
         <v>20207</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="40"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="16">
         <v>20208</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
-        <v>401</v>
+      <c r="A45" s="47" t="s">
+        <v>333</v>
       </c>
       <c r="B45" s="16">
         <v>20301</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="16">
         <v>20302</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="16">
         <v>20303</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="16">
         <v>20304</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="16">
         <v>20305</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="16">
         <v>20306</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="16">
         <v>20307</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="16">
         <v>20308</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="16">
         <v>20309</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="16">
         <v>20310</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="16">
         <v>20311</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="16">
         <v>20312</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="16">
         <v>20313</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="16">
         <v>20314</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="16">
         <v>20315</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="16">
         <v>20316</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="16">
         <v>20317</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="16">
         <v>20318</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="16">
         <v>20319</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="16">
         <v>20320</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="16">
         <v>20321</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="16">
         <v>20322</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="16">
         <v>20323</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="35"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="16">
         <v>20324</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="35"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="16">
         <v>20325</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="35"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="16">
         <v>20326</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="35"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="16">
         <v>20327</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="35"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="16">
         <v>20328</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="16">
         <v>20329</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="35"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="16">
         <v>20330</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="16">
         <v>20331</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="35"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="16">
         <v>20332</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="35"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="16">
         <v>20333</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="35"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="16">
         <v>20334</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="35"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="16">
         <v>20335</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="35"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="16">
         <v>20336</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="16">
         <v>20337</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="36"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="16">
         <v>20338</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="34" t="s">
-        <v>402</v>
+      <c r="A83" s="47" t="s">
+        <v>334</v>
       </c>
       <c r="B83" s="16">
         <v>20401</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="35"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="16">
         <v>20402</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="36"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="16">
         <v>20403</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4581,278 +7115,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>517</v>
-      </c>
-      <c r="C17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>518</v>
-      </c>
-      <c r="C20" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>498</v>
-      </c>
-      <c r="C22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B43" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B46" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4864,69 +7132,91 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>695</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>199</v>
+        <v>697</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>198</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>699</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>200</v>
+        <v>698</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4939,171 +7229,225 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C10" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D11" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
+      <c r="C12" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>219</v>
+      <c r="A13" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="M15" s="9"/>
     </row>
   </sheetData>
@@ -5114,59 +7458,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="A2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="25" t="s">
-        <v>466</v>
+      <c r="A3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +7537,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5193,60 +7550,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +7617,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5274,222 +7631,222 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5501,37 +7858,437 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5544,7 +8301,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5554,333 +8311,256 @@
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="A3" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>583</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>136</v>
+      <c r="A6" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="30"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="30"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="30"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="27" t="s">
+        <v>583</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>139</v>
+      <c r="F12" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A16" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
+  <mergeCells count="8">
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5890,129 +8570,388 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="42" t="s">
-        <v>473</v>
+      <c r="G2" s="29" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>480</v>
+        <v>408</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="29" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="10"/>
+      <c r="G4" s="29" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="G5" s="29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="10"/>
+      <c r="G6" s="29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/PLC设备接入分析/PLC设备接入设计.xlsx
+++ b/doc/PLC设备接入分析/PLC设备接入设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="7605" tabRatio="829" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="7605" tabRatio="829" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="UUID生成规则" sheetId="15" r:id="rId1"/>
@@ -25,18 +25,19 @@
     <sheet name="开关灯JSON例子" sheetId="19" r:id="rId11"/>
     <sheet name="单灯控制器信号" sheetId="20" r:id="rId12"/>
     <sheet name="集中器设备数据初始化" sheetId="22" r:id="rId13"/>
-    <sheet name="单灯设备数据初始化" sheetId="21" r:id="rId14"/>
-    <sheet name="错误码和返回值定义" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId14"/>
+    <sheet name="单灯设备数据初始化" sheetId="21" r:id="rId15"/>
+    <sheet name="错误码和返回值定义" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="t0" localSheetId="14">错误码和返回值定义!#REF!</definedName>
+    <definedName name="t0" localSheetId="15">错误码和返回值定义!#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="754">
   <si>
     <t>中文名设备类型名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1765,10 +1766,6 @@
     <t>plc_node_cCode</t>
   </si>
   <si>
-    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1793,874 +1790,1008 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>plc_node_voltage_in</t>
+  </si>
+  <si>
+    <t>plc_node_a_electri_in</t>
+  </si>
+  <si>
+    <t>plc_node_id</t>
+  </si>
+  <si>
+    <t>plc_node_sn</t>
+  </si>
+  <si>
+    <t>plc_node_temperature</t>
+  </si>
+  <si>
+    <t>信号编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号编码key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109002</t>
+  </si>
+  <si>
+    <t>来源报文F7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源报文F7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit8</t>
+  </si>
+  <si>
+    <t>current_source_bit0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit7</t>
+  </si>
+  <si>
+    <t>current_source_bit6</t>
+  </si>
+  <si>
+    <t>current_source_bit5</t>
+  </si>
+  <si>
+    <t>current_source_bit4</t>
+  </si>
+  <si>
+    <t>current_source_bit3</t>
+  </si>
+  <si>
+    <t>current_source_bit2</t>
+  </si>
+  <si>
+    <t>current_source_bit1</t>
+  </si>
+  <si>
+    <t>controller_bit9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit10</t>
+  </si>
+  <si>
+    <t>controller_bit11</t>
+  </si>
+  <si>
+    <t>controller_bit12</t>
+  </si>
+  <si>
+    <t>controller_bit13</t>
+  </si>
+  <si>
+    <t>controller_bit14</t>
+  </si>
+  <si>
+    <t>controller_bit15</t>
+  </si>
+  <si>
+    <t>controller_bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit1</t>
+  </si>
+  <si>
+    <t>controller_bit2</t>
+  </si>
+  <si>
+    <t>controller_bit3</t>
+  </si>
+  <si>
+    <t>controller_bit4</t>
+  </si>
+  <si>
+    <t>controller_bit5</t>
+  </si>
+  <si>
+    <t>controller_bit6</t>
+  </si>
+  <si>
+    <t>controller_bit7</t>
+  </si>
+  <si>
+    <t>A灯控制器,继电器状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠压报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过压警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,欠载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,过载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A灯控制器,继电器失效报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,继电器状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过流报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠压报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过压警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,欠载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,过载报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B灯控制器,继电器失效报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,温度过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,温度过低报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,无法启动报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输出短路报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输出开路报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,功率过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输入电压过高报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,输入电压过低报警位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路灯电源,电源状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit7_code</t>
+  </si>
+  <si>
+    <t>current_source_bit6_code</t>
+  </si>
+  <si>
+    <t>current_source_bit4_code</t>
+  </si>
+  <si>
+    <t>current_source_bit3_code</t>
+  </si>
+  <si>
+    <t>current_source_bit2_code</t>
+  </si>
+  <si>
+    <t>current_source_bit1_code</t>
+  </si>
+  <si>
+    <t>current_source_bit0_code</t>
+  </si>
+  <si>
+    <t>controller_bit0_code</t>
+  </si>
+  <si>
+    <t>controller_bit1_code</t>
+  </si>
+  <si>
+    <t>controller_bit2_code</t>
+  </si>
+  <si>
+    <t>controller_bit4_code</t>
+  </si>
+  <si>
+    <t>controller_bit5_code</t>
+  </si>
+  <si>
+    <t>controller_bit6_code</t>
+  </si>
+  <si>
+    <t>controller_bit8_code</t>
+  </si>
+  <si>
+    <t>controller_bit9_code</t>
+  </si>
+  <si>
+    <t>controller_bit10_code</t>
+  </si>
+  <si>
+    <t>controller_bit11_code</t>
+  </si>
+  <si>
+    <t>controller_bit12_code</t>
+  </si>
+  <si>
+    <t>controller_bit13_code</t>
+  </si>
+  <si>
+    <t>controller_bit14_code</t>
+  </si>
+  <si>
+    <t>controller_bit15_code</t>
+  </si>
+  <si>
+    <t>0x109005</t>
+  </si>
+  <si>
+    <t>0x109006</t>
+  </si>
+  <si>
+    <t>0x109007</t>
+  </si>
+  <si>
+    <t>0x109008</t>
+  </si>
+  <si>
+    <t>0x109009</t>
+  </si>
+  <si>
+    <t>0x109010</t>
+  </si>
+  <si>
+    <t>0x109011</t>
+  </si>
+  <si>
+    <t>0x109012</t>
+  </si>
+  <si>
+    <t>0x109013</t>
+  </si>
+  <si>
+    <t>0x109014</t>
+  </si>
+  <si>
+    <t>0x109016</t>
+  </si>
+  <si>
+    <t>0x109018</t>
+  </si>
+  <si>
+    <t>0x109019</t>
+  </si>
+  <si>
+    <t>0x109020</t>
+  </si>
+  <si>
+    <t>0x109021</t>
+  </si>
+  <si>
+    <t>0x109022</t>
+  </si>
+  <si>
+    <t>0x109023</t>
+  </si>
+  <si>
+    <t>0x109024</t>
+  </si>
+  <si>
+    <t>0x109025</t>
+  </si>
+  <si>
+    <t>current_source_bit8_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性、信号、字段上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号数据上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功后上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7命令码的协议中抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC自动配置流程已包含类似操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定义</t>
+  </si>
+  <si>
+    <t>未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_plc_id</t>
+  </si>
+  <si>
+    <t>plc_sn</t>
+  </si>
+  <si>
+    <t>plc_a_voltage</t>
+  </si>
+  <si>
+    <t>集中器，A相电压</t>
+  </si>
+  <si>
+    <t>plc_a_electric</t>
+  </si>
+  <si>
+    <t>集中器，A相电流</t>
+  </si>
+  <si>
+    <t>集中器，A相功率</t>
+  </si>
+  <si>
+    <t>plc_a_power</t>
+  </si>
+  <si>
+    <t>plc_a_pf</t>
+  </si>
+  <si>
+    <t>集中器，A相功率因素</t>
+  </si>
+  <si>
+    <t>集中器，电能</t>
+  </si>
+  <si>
+    <t>plc_elect_energy</t>
+  </si>
+  <si>
+    <t>plc_ad1_in</t>
+  </si>
+  <si>
+    <t>集中器，AD1输入</t>
+  </si>
+  <si>
+    <t>集中器，B相电压</t>
+  </si>
+  <si>
+    <t>plc_b_voltage</t>
+  </si>
+  <si>
+    <t>集中器，B相电流</t>
+  </si>
+  <si>
+    <t>plc_b_electric</t>
+  </si>
+  <si>
+    <t>plc_b_power</t>
+  </si>
+  <si>
+    <t>集中器，B相功率</t>
+  </si>
+  <si>
+    <t>集中器，B相功率因素</t>
+  </si>
+  <si>
+    <t>plc_b_pf</t>
+  </si>
+  <si>
+    <t>plc_all_power</t>
+  </si>
+  <si>
+    <t>集中器，总功率</t>
+  </si>
+  <si>
+    <t>plc_ad2_in</t>
+  </si>
+  <si>
+    <t>集中器，AD2输入</t>
+  </si>
+  <si>
+    <t>集中器，C相电压</t>
+  </si>
+  <si>
+    <t>plc_c_voltage</t>
+  </si>
+  <si>
+    <t>集中器，C相电流</t>
+  </si>
+  <si>
+    <t>plc_c_electric</t>
+  </si>
+  <si>
+    <t>plc_c_power</t>
+  </si>
+  <si>
+    <t>集中器，C相功率</t>
+  </si>
+  <si>
+    <t>集中器，C相功率因素</t>
+  </si>
+  <si>
+    <t>plc_c_pf</t>
+  </si>
+  <si>
+    <t>plc_3_power</t>
+  </si>
+  <si>
+    <t>集中器，三相功率因素</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面根据实际情况考虑拆开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值+单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_longitude</t>
+  </si>
+  <si>
+    <t>plc_cfg_latitude</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_sq</t>
+  </si>
+  <si>
+    <t>时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_gksd_start</t>
+  </si>
+  <si>
+    <t>plc_cfg_gksd_end</t>
+  </si>
+  <si>
+    <t>光控时段开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光控时段结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_systime</t>
+  </si>
+  <si>
+    <t>时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step5_groupAtuo</t>
+  </si>
+  <si>
+    <t>组网数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价于deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器,地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>输入电压</t>
+  </si>
+  <si>
+    <t>plc_node_voltage_out</t>
+  </si>
+  <si>
+    <t>输出电压</t>
+  </si>
+  <si>
+    <t>A路输入电流</t>
+  </si>
+  <si>
+    <t>plc_node_a_electri_out</t>
+  </si>
+  <si>
+    <t>A路输出电流</t>
+  </si>
+  <si>
+    <t>A路有功功率</t>
+  </si>
+  <si>
+    <t>plc_node_a_power</t>
+  </si>
+  <si>
+    <t>A路功率因数</t>
+  </si>
+  <si>
+    <t>plc_node_a_pf</t>
+  </si>
+  <si>
+    <t>A亮度</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>plc_node_type</t>
+  </si>
+  <si>
+    <t>plc_node_devCode</t>
+  </si>
+  <si>
+    <t>设备码</t>
+  </si>
+  <si>
+    <t>节点所属组</t>
+  </si>
+  <si>
+    <t>plc_node_group</t>
+  </si>
+  <si>
+    <t>控制码</t>
+  </si>
+  <si>
+    <t>设备接入自动配置时需要</t>
+  </si>
+  <si>
+    <t>设备接入自动配置时需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 单灯A(01)，单灯B(02),双灯(03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用得上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已重复定义，这里黑底标注取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已重复定义，这里黑底标注取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huazhiyouwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华智有为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超频三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hikvision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地伟业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太龙智显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zklink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联信通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xixun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colorlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innosmart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳创智慧能科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC集中器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC-Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_Lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC采用私有协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的信号编号怎么使用？请看下面的两种消息类型(请开发关注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit5_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit3_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_bit7_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x109001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_source_bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备地址(sn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光控时段-开始时分</t>
+  </si>
+  <si>
+    <t>光控时段  结束时分</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>组网个数</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>8:10</t>
+  </si>
+  <si>
+    <t>自动取当前系统时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000020004ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_sq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_gksd_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step1_gksd_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step2_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_cfg_step5_groupAtuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_devCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_node_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：控制A灯， 02：控制B灯  ,  03:AB灯，单灯控制给值03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：控制A灯， 02：控制B灯  ,   03:AB灯，     单灯控制给值03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01：点控制 ，02：组控制。03：广播控制，   单灯控制给01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01：控制A灯， 02：控制B灯  ,  XX:其他灯，单灯控制给值01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_voltage_in</t>
-  </si>
-  <si>
-    <t>plc_node_a_electri_in</t>
-  </si>
-  <si>
-    <t>plc_node_id</t>
-  </si>
-  <si>
-    <t>plc_node_sn</t>
-  </si>
-  <si>
-    <t>plc_node_temperature</t>
-  </si>
-  <si>
-    <t>信号编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号编码key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signal_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109002</t>
-  </si>
-  <si>
-    <t>来源报文F7H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源报文F7H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_source_bit8</t>
-  </si>
-  <si>
-    <t>current_source_bit0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_source_bit7</t>
-  </si>
-  <si>
-    <t>current_source_bit6</t>
-  </si>
-  <si>
-    <t>current_source_bit5</t>
-  </si>
-  <si>
-    <t>current_source_bit4</t>
-  </si>
-  <si>
-    <t>current_source_bit3</t>
-  </si>
-  <si>
-    <t>current_source_bit2</t>
-  </si>
-  <si>
-    <t>current_source_bit1</t>
-  </si>
-  <si>
-    <t>controller_bit9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_bit10</t>
-  </si>
-  <si>
-    <t>controller_bit11</t>
-  </si>
-  <si>
-    <t>controller_bit12</t>
-  </si>
-  <si>
-    <t>controller_bit13</t>
-  </si>
-  <si>
-    <t>controller_bit14</t>
-  </si>
-  <si>
-    <t>controller_bit15</t>
-  </si>
-  <si>
-    <t>controller_bit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_bit0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_bit1</t>
-  </si>
-  <si>
-    <t>controller_bit2</t>
-  </si>
-  <si>
-    <t>controller_bit3</t>
-  </si>
-  <si>
-    <t>controller_bit4</t>
-  </si>
-  <si>
-    <t>controller_bit5</t>
-  </si>
-  <si>
-    <t>controller_bit6</t>
-  </si>
-  <si>
-    <t>controller_bit7</t>
-  </si>
-  <si>
-    <t>A灯控制器,继电器状态位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,欠流报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,过流报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,欠压报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,过压警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,欠载报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,过载报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A灯控制器,继电器失效报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,继电器状态位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,欠流报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,过流报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,欠压报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,过压警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,欠载报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,过载报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B灯控制器,继电器失效报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,温度过高报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,温度过低报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,无法启动报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,输出短路报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,输出开路报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,功率过高报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,输入电压过高报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,输入电压过低报警位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路灯电源,电源状态位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_source_bit7_code</t>
-  </si>
-  <si>
-    <t>current_source_bit6_code</t>
-  </si>
-  <si>
-    <t>current_source_bit4_code</t>
-  </si>
-  <si>
-    <t>current_source_bit3_code</t>
-  </si>
-  <si>
-    <t>current_source_bit2_code</t>
-  </si>
-  <si>
-    <t>current_source_bit1_code</t>
-  </si>
-  <si>
-    <t>current_source_bit0_code</t>
-  </si>
-  <si>
-    <t>controller_bit0_code</t>
-  </si>
-  <si>
-    <t>controller_bit1_code</t>
-  </si>
-  <si>
-    <t>controller_bit2_code</t>
-  </si>
-  <si>
-    <t>controller_bit4_code</t>
-  </si>
-  <si>
-    <t>controller_bit5_code</t>
-  </si>
-  <si>
-    <t>controller_bit6_code</t>
-  </si>
-  <si>
-    <t>controller_bit8_code</t>
-  </si>
-  <si>
-    <t>controller_bit9_code</t>
-  </si>
-  <si>
-    <t>controller_bit10_code</t>
-  </si>
-  <si>
-    <t>controller_bit11_code</t>
-  </si>
-  <si>
-    <t>controller_bit12_code</t>
-  </si>
-  <si>
-    <t>controller_bit13_code</t>
-  </si>
-  <si>
-    <t>controller_bit14_code</t>
-  </si>
-  <si>
-    <t>controller_bit15_code</t>
-  </si>
-  <si>
-    <t>0x109005</t>
-  </si>
-  <si>
-    <t>0x109006</t>
-  </si>
-  <si>
-    <t>0x109007</t>
-  </si>
-  <si>
-    <t>0x109008</t>
-  </si>
-  <si>
-    <t>0x109009</t>
-  </si>
-  <si>
-    <t>0x109010</t>
-  </si>
-  <si>
-    <t>0x109011</t>
-  </si>
-  <si>
-    <t>0x109012</t>
-  </si>
-  <si>
-    <t>0x109013</t>
-  </si>
-  <si>
-    <t>0x109014</t>
-  </si>
-  <si>
-    <t>0x109016</t>
-  </si>
-  <si>
-    <t>0x109018</t>
-  </si>
-  <si>
-    <t>0x109019</t>
-  </si>
-  <si>
-    <t>0x109020</t>
-  </si>
-  <si>
-    <t>0x109021</t>
-  </si>
-  <si>
-    <t>0x109022</t>
-  </si>
-  <si>
-    <t>0x109023</t>
-  </si>
-  <si>
-    <t>0x109024</t>
-  </si>
-  <si>
-    <t>0x109025</t>
-  </si>
-  <si>
-    <t>current_source_bit8_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性、信号、字段上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号数据上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆成功后上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7命令码的协议中抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息类型字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC自动配置流程已包含类似操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定义</t>
-  </si>
-  <si>
-    <t>未定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_plc_id</t>
-  </si>
-  <si>
-    <t>plc_sn</t>
-  </si>
-  <si>
-    <t>plc_a_voltage</t>
-  </si>
-  <si>
-    <t>集中器，A相电压</t>
-  </si>
-  <si>
-    <t>plc_a_electric</t>
-  </si>
-  <si>
-    <t>集中器，A相电流</t>
-  </si>
-  <si>
-    <t>集中器，A相功率</t>
-  </si>
-  <si>
-    <t>plc_a_power</t>
-  </si>
-  <si>
-    <t>plc_a_pf</t>
-  </si>
-  <si>
-    <t>集中器，A相功率因素</t>
-  </si>
-  <si>
-    <t>集中器，电能</t>
-  </si>
-  <si>
-    <t>plc_elect_energy</t>
-  </si>
-  <si>
-    <t>plc_ad1_in</t>
-  </si>
-  <si>
-    <t>集中器，AD1输入</t>
-  </si>
-  <si>
-    <t>集中器，B相电压</t>
-  </si>
-  <si>
-    <t>plc_b_voltage</t>
-  </si>
-  <si>
-    <t>集中器，B相电流</t>
-  </si>
-  <si>
-    <t>plc_b_electric</t>
-  </si>
-  <si>
-    <t>plc_b_power</t>
-  </si>
-  <si>
-    <t>集中器，B相功率</t>
-  </si>
-  <si>
-    <t>集中器，B相功率因素</t>
-  </si>
-  <si>
-    <t>plc_b_pf</t>
-  </si>
-  <si>
-    <t>plc_all_power</t>
-  </si>
-  <si>
-    <t>集中器，总功率</t>
-  </si>
-  <si>
-    <t>plc_ad2_in</t>
-  </si>
-  <si>
-    <t>集中器，AD2输入</t>
-  </si>
-  <si>
-    <t>集中器，C相电压</t>
-  </si>
-  <si>
-    <t>plc_c_voltage</t>
-  </si>
-  <si>
-    <t>集中器，C相电流</t>
-  </si>
-  <si>
-    <t>plc_c_electric</t>
-  </si>
-  <si>
-    <t>plc_c_power</t>
-  </si>
-  <si>
-    <t>集中器，C相功率</t>
-  </si>
-  <si>
-    <t>集中器，C相功率因素</t>
-  </si>
-  <si>
-    <t>plc_c_pf</t>
-  </si>
-  <si>
-    <t>plc_3_power</t>
-  </si>
-  <si>
-    <t>集中器，三相功率因素</t>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后面根据实际情况考虑拆开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值+单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_longitude</t>
-  </si>
-  <si>
-    <t>plc_cfg_latitude</t>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_sq</t>
-  </si>
-  <si>
-    <t>时区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_gksd_start</t>
-  </si>
-  <si>
-    <t>plc_cfg_gksd_end</t>
-  </si>
-  <si>
-    <t>光控时段开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光控时段结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_systime</t>
-  </si>
-  <si>
-    <t>时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step5_groupAtuo</t>
-  </si>
-  <si>
-    <t>组网数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等价于deviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器,地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-  </si>
-  <si>
-    <t>输入电压</t>
-  </si>
-  <si>
-    <t>plc_node_voltage_out</t>
-  </si>
-  <si>
-    <t>输出电压</t>
-  </si>
-  <si>
-    <t>A路输入电流</t>
-  </si>
-  <si>
-    <t>plc_node_a_electri_out</t>
-  </si>
-  <si>
-    <t>A路输出电流</t>
-  </si>
-  <si>
-    <t>A路有功功率</t>
-  </si>
-  <si>
-    <t>plc_node_a_power</t>
-  </si>
-  <si>
-    <t>A路功率因数</t>
-  </si>
-  <si>
-    <t>plc_node_a_pf</t>
-  </si>
-  <si>
-    <t>A亮度</t>
-  </si>
-  <si>
-    <t>控制类型</t>
-  </si>
-  <si>
-    <t>plc_node_type</t>
-  </si>
-  <si>
-    <t>plc_node_devCode</t>
-  </si>
-  <si>
-    <t>设备码</t>
-  </si>
-  <si>
-    <t>节点所属组</t>
-  </si>
-  <si>
-    <t>plc_node_group</t>
-  </si>
-  <si>
-    <t>控制码</t>
-  </si>
-  <si>
-    <t>设备接入自动配置时需要</t>
-  </si>
-  <si>
-    <t>设备接入自动配置时需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 单灯A(01)，单灯B(02),双灯(03)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用得上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已重复定义，这里黑底标注取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已重复定义，这里黑底标注取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huazhiyouwei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华智有为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超频三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hikvision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天地伟业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太龙智显</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zklink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科智联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智联信通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruijie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xixun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colorlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>innosmart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳创智慧能科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC集中器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC-Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_Lamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC采用私有协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的信号编号怎么使用？请看下面的两种消息类型(请开发关注）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_source_bit5_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_bit3_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_bit7_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x109001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_source_bit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备地址(sn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光控时段-开始时分</t>
-  </si>
-  <si>
-    <t>光控时段  结束时分</t>
-  </si>
-  <si>
-    <t>时钟</t>
-  </si>
-  <si>
-    <t>组网个数</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>8:10</t>
-  </si>
-  <si>
-    <t>自动取当前系统时间</t>
+    <t>1010-d8b38d288d431464-3001-ffff-36cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010-b6fdc8a25f45b30e-3001-ffff-b2af</t>
+  </si>
+  <si>
+    <t>00000200053a</t>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2668,123 +2799,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plc_node_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000020004ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step1_longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step1_latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step1_sq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step1_gksd_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step1_gksd_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step2_timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_cfg_step5_groupAtuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_devCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_node_group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010-3f7b3eb6bffe6fb1-2009-ffff-be7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中器ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-f82d132f9bb018ca-2001-ffff-d28a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-f82d132f9bb018ca-2001-ffff-d28a</t>
+    <t>1010-1f31e84812046d00-3001-ffff-8ea3</t>
+  </si>
+  <si>
+    <t>1010-d8b38d288d431464-3001-ffff-36cf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2905,7 +2923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2936,8 +2954,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3023,6 +3047,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3034,7 +3086,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3146,6 +3198,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3165,6 +3241,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,29 +3282,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3857,7 +3924,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_id\":	\"1000-f82d132f9bb018ca-2001-ffff-d28a\",</a:t>
+            <a:t>	\"plc_id\":	\"1010-d8b38d288d431464-3001-ffff-36cf\",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3913,85 +3980,69 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step5_groupAtuo\":	\"1\",</a:t>
+            <a:t>	\"plc_cfg_step5_groupAtuo\":	\"2\",</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>},</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>\"</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>vendor_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>\":	\"xxxxxxxxxxxxxxx\",</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_id\":	\"1000-f82d132f9bb018ca-2001-ffff-2222\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_sn\":	\"000000000100\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step1_longitude\":	\"3980\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step1_latitude\":	\"-2546\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step1_sq\":	\"-8\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step1_gksd_start\":	\"8:10\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step1_gksd_end\":	\"8:10\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step2_timestamp\":	\"\",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	\"plc_cfg_step5_groupAtuo\":	\"1\",</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4325,28 +4376,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -4751,10 +4802,10 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4766,7 +4817,7 @@
       <c r="E2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="51" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="3"/>
@@ -4775,8 +4826,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="3" t="s">
         <v>109</v>
       </c>
@@ -4786,15 +4837,15 @@
       <c r="E3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="3"/>
       <c r="H3" s="28" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="3" t="s">
         <v>111</v>
       </c>
@@ -4804,15 +4855,15 @@
       <c r="E4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="3"/>
       <c r="H4" s="28" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="3" t="s">
         <v>113</v>
       </c>
@@ -4822,15 +4873,15 @@
       <c r="E5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3"/>
       <c r="H5" s="28" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="3" t="s">
         <v>115</v>
       </c>
@@ -4840,15 +4891,15 @@
       <c r="E6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="3"/>
       <c r="H6" s="28" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="3" t="s">
         <v>117</v>
       </c>
@@ -4858,7 +4909,7 @@
       <c r="E7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="3"/>
       <c r="H7" s="28" t="s">
         <v>401</v>
@@ -4895,7 +4946,7 @@
         <v>451</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>457</v>
@@ -4912,10 +4963,10 @@
         <v>454</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>459</v>
+        <v>743</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G10" s="26"/>
     </row>
@@ -4929,14 +4980,14 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>463</v>
+      <c r="B12" s="52" t="s">
+        <v>462</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>452</v>
@@ -4950,10 +5001,10 @@
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>452</v>
@@ -4967,8 +5018,8 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="21" t="s">
         <v>458</v>
       </c>
@@ -4976,16 +5027,16 @@
         <v>451</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>466</v>
+        <v>745</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="21" t="s">
         <v>456</v>
       </c>
@@ -4993,7 +5044,7 @@
         <v>454</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>467</v>
+        <v>744</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>455</v>
@@ -5001,22 +5052,22 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="51" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="51" t="s">
         <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="51" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="3"/>
@@ -5025,32 +5076,32 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="3"/>
       <c r="H17" s="9" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9" t="s">
         <v>404</v>
@@ -5361,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5380,13 +5431,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>22</v>
@@ -5394,352 +5445,352 @@
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -5756,59 +5807,59 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G29" s="32" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F30" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="H30" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>582</v>
-      </c>
       <c r="I30" s="33" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F31" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F32" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.15">
       <c r="K33" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.15">
@@ -5841,108 +5892,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="G6:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.75" style="59" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="59" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="31.25" style="59" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="59" customWidth="1"/>
-    <col min="8" max="8" width="26" style="59" customWidth="1"/>
-    <col min="9" max="9" width="27" style="59" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="42" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="42" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="26" style="42" customWidth="1"/>
+    <col min="9" max="9" width="27" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="54" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:9" s="37" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>710</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>629</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>631</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="I1" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="G1" s="60" t="s">
+    </row>
+    <row r="2" spans="1:9" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>728</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="F3" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="G3" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
-        <v>744</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>729</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>732</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>733</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>734</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>735</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>737</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>728</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>731</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>727</v>
-      </c>
-      <c r="E3" s="59" t="s">
+      <c r="I3" s="42" t="s">
         <v>715</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>716</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>736</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>717</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5955,93 +6006,192 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="H11:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="11" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.375" style="59" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="59" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="59" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="59" customWidth="1"/>
-    <col min="7" max="7" width="31.25" style="58" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="58" customWidth="1"/>
-    <col min="9" max="9" width="26" style="58" customWidth="1"/>
-    <col min="10" max="10" width="27" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="58"/>
+    <col min="1" max="1" width="37.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="41.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="42" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="41" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26" style="41" customWidth="1"/>
+    <col min="10" max="10" width="27" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="56" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:10" s="39" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>717</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>738</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>739</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>746</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>710</v>
-      </c>
-      <c r="D1" s="60" t="s">
+      <c r="C3" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="D3" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="E3" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>745</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>739</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>740</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>741</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>742</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
-        <v>743</v>
-      </c>
-      <c r="B3" s="59" t="s">
+      <c r="F3" s="42" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>724</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>725</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>726</v>
+      <c r="D4" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -6050,7 +6200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
@@ -6081,7 +6231,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>341</v>
       </c>
       <c r="B2" s="12">
@@ -6095,7 +6245,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="16">
         <v>10001</v>
       </c>
@@ -6107,7 +6257,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="16">
         <v>10002</v>
       </c>
@@ -6119,7 +6269,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="16">
         <v>10003</v>
       </c>
@@ -6131,7 +6281,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="16">
         <v>10004</v>
       </c>
@@ -6143,7 +6293,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="16">
         <v>10005</v>
       </c>
@@ -6155,7 +6305,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="16">
         <v>10006</v>
       </c>
@@ -6167,7 +6317,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="16">
         <v>10007</v>
       </c>
@@ -6179,7 +6329,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="16">
         <v>10008</v>
       </c>
@@ -6191,7 +6341,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="16">
         <v>10009</v>
       </c>
@@ -6203,7 +6353,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="16">
         <v>10010</v>
       </c>
@@ -6215,7 +6365,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="16">
         <v>10011</v>
       </c>
@@ -6227,7 +6377,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="16">
         <v>10012</v>
       </c>
@@ -6239,7 +6389,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="64" t="s">
         <v>180</v>
       </c>
       <c r="B15" s="16">
@@ -6253,7 +6403,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="16">
         <v>20002</v>
       </c>
@@ -6265,7 +6415,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="16">
         <v>20003</v>
       </c>
@@ -6277,7 +6427,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="16">
         <v>20004</v>
       </c>
@@ -6289,7 +6439,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="16">
         <v>20005</v>
       </c>
@@ -6301,7 +6451,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="16">
         <v>20006</v>
       </c>
@@ -6313,7 +6463,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="16">
         <v>20007</v>
       </c>
@@ -6325,7 +6475,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="16">
         <v>20008</v>
       </c>
@@ -6337,7 +6487,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="16">
         <v>20009</v>
       </c>
@@ -6349,7 +6499,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="16">
         <v>20010</v>
       </c>
@@ -6361,7 +6511,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="16">
         <v>20011</v>
       </c>
@@ -6373,7 +6523,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="16">
         <v>20012</v>
       </c>
@@ -6385,7 +6535,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="16">
         <v>20013</v>
       </c>
@@ -6397,7 +6547,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="16">
         <v>20014</v>
       </c>
@@ -6409,7 +6559,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="64" t="s">
         <v>254</v>
       </c>
       <c r="B29" s="16">
@@ -6423,7 +6573,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="16">
         <v>20102</v>
       </c>
@@ -6435,7 +6585,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="16">
         <v>20103</v>
       </c>
@@ -6447,7 +6597,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="16">
         <v>20104</v>
       </c>
@@ -6459,7 +6609,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="16">
         <v>20105</v>
       </c>
@@ -6471,7 +6621,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="16">
         <v>20106</v>
       </c>
@@ -6483,7 +6633,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="16">
         <v>20107</v>
       </c>
@@ -6495,7 +6645,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="16">
         <v>20108</v>
       </c>
@@ -6507,7 +6657,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="64" t="s">
         <v>271</v>
       </c>
       <c r="B37" s="16">
@@ -6521,7 +6671,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="16">
         <v>20202</v>
       </c>
@@ -6533,7 +6683,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="53"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="16">
         <v>20203</v>
       </c>
@@ -6545,7 +6695,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="16">
         <v>20204</v>
       </c>
@@ -6557,7 +6707,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="53"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="16">
         <v>20205</v>
       </c>
@@ -6569,7 +6719,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="16">
         <v>20206</v>
       </c>
@@ -6581,7 +6731,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="53"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="16">
         <v>20207</v>
       </c>
@@ -6593,7 +6743,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="53"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="16">
         <v>20208</v>
       </c>
@@ -6605,7 +6755,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="58" t="s">
         <v>333</v>
       </c>
       <c r="B45" s="16">
@@ -6619,7 +6769,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="16">
         <v>20302</v>
       </c>
@@ -6631,7 +6781,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="16">
         <v>20303</v>
       </c>
@@ -6643,7 +6793,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="16">
         <v>20304</v>
       </c>
@@ -6655,7 +6805,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="16">
         <v>20305</v>
       </c>
@@ -6667,7 +6817,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="16">
         <v>20306</v>
       </c>
@@ -6679,7 +6829,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="16">
         <v>20307</v>
       </c>
@@ -6691,7 +6841,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="16">
         <v>20308</v>
       </c>
@@ -6703,7 +6853,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="48"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="16">
         <v>20309</v>
       </c>
@@ -6715,7 +6865,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="48"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="16">
         <v>20310</v>
       </c>
@@ -6727,7 +6877,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="48"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="16">
         <v>20311</v>
       </c>
@@ -6739,7 +6889,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="48"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="16">
         <v>20312</v>
       </c>
@@ -6751,7 +6901,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="16">
         <v>20313</v>
       </c>
@@ -6763,7 +6913,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="16">
         <v>20314</v>
       </c>
@@ -6775,7 +6925,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="16">
         <v>20315</v>
       </c>
@@ -6787,7 +6937,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="16">
         <v>20316</v>
       </c>
@@ -6799,7 +6949,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="16">
         <v>20317</v>
       </c>
@@ -6811,7 +6961,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="16">
         <v>20318</v>
       </c>
@@ -6823,7 +6973,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="48"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="16">
         <v>20319</v>
       </c>
@@ -6835,7 +6985,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="48"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="16">
         <v>20320</v>
       </c>
@@ -6847,7 +6997,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="16">
         <v>20321</v>
       </c>
@@ -6859,7 +7009,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="16">
         <v>20322</v>
       </c>
@@ -6871,7 +7021,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="16">
         <v>20323</v>
       </c>
@@ -6883,7 +7033,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="48"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="16">
         <v>20324</v>
       </c>
@@ -6895,7 +7045,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="48"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="16">
         <v>20325</v>
       </c>
@@ -6907,7 +7057,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="48"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="16">
         <v>20326</v>
       </c>
@@ -6919,7 +7069,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="48"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="16">
         <v>20327</v>
       </c>
@@ -6931,7 +7081,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="48"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="16">
         <v>20328</v>
       </c>
@@ -6943,7 +7093,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="48"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="16">
         <v>20329</v>
       </c>
@@ -6955,7 +7105,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="48"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="16">
         <v>20330</v>
       </c>
@@ -6967,7 +7117,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="48"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="16">
         <v>20331</v>
       </c>
@@ -6979,7 +7129,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="16">
         <v>20332</v>
       </c>
@@ -6991,7 +7141,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="48"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="16">
         <v>20333</v>
       </c>
@@ -7003,7 +7153,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="48"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="16">
         <v>20334</v>
       </c>
@@ -7015,7 +7165,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="48"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="16">
         <v>20335</v>
       </c>
@@ -7027,7 +7177,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="16">
         <v>20336</v>
       </c>
@@ -7039,7 +7189,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="48"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="16">
         <v>20337</v>
       </c>
@@ -7051,7 +7201,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="49"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="16">
         <v>20338</v>
       </c>
@@ -7063,7 +7213,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="58" t="s">
         <v>334</v>
       </c>
       <c r="B83" s="16">
@@ -7077,7 +7227,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="48"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="16">
         <v>20402</v>
       </c>
@@ -7089,7 +7239,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="49"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="16">
         <v>20403</v>
       </c>
@@ -7143,21 +7293,21 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>160</v>
@@ -7250,7 +7400,7 @@
         <v>66</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7258,13 +7408,13 @@
         <v>139</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7275,10 +7425,10 @@
         <v>67</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7289,10 +7439,10 @@
         <v>68</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7300,13 +7450,13 @@
         <v>142</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7317,10 +7467,10 @@
         <v>70</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7331,10 +7481,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7345,10 +7495,10 @@
         <v>72</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7356,13 +7506,13 @@
         <v>146</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7373,10 +7523,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7384,13 +7534,13 @@
         <v>148</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7401,10 +7551,10 @@
         <v>75</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7412,13 +7562,13 @@
         <v>156</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7426,13 +7576,13 @@
         <v>157</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>158</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -7440,13 +7590,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M15" s="9"/>
     </row>
@@ -7520,10 +7670,10 @@
         <v>165</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -7891,34 +8041,34 @@
         <v>10</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10"/>
@@ -7926,31 +8076,31 @@
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="10"/>
@@ -7958,13 +8108,13 @@
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10"/>
@@ -7972,13 +8122,13 @@
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="10"/>
@@ -7986,13 +8136,13 @@
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="10"/>
@@ -8000,13 +8150,13 @@
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10"/>
@@ -8014,13 +8164,13 @@
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="10"/>
@@ -8028,13 +8178,13 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="10"/>
@@ -8042,13 +8192,13 @@
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="10"/>
@@ -8056,13 +8206,13 @@
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="10"/>
@@ -8070,13 +8220,13 @@
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="10"/>
@@ -8084,13 +8234,13 @@
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="10"/>
@@ -8098,13 +8248,13 @@
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="10"/>
@@ -8112,13 +8262,13 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="10"/>
@@ -8126,13 +8276,13 @@
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10"/>
@@ -8140,13 +8290,13 @@
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>623</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="10"/>
@@ -8154,13 +8304,13 @@
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="10"/>
@@ -8176,102 +8326,102 @@
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="2"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="2"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="2"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="2"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="2"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="2"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -8300,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8347,33 +8497,33 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -8388,77 +8538,77 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -8473,81 +8623,81 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="48" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -8622,7 +8772,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="10"/>
       <c r="G2" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -8641,7 +8791,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8660,7 +8810,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="10"/>
       <c r="G4" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -8668,7 +8818,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8681,7 +8831,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -8689,7 +8839,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>9</v>
@@ -8702,7 +8852,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -8716,13 +8866,13 @@
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -8730,13 +8880,13 @@
     </row>
     <row r="9" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -8744,13 +8894,13 @@
     </row>
     <row r="10" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -8758,29 +8908,29 @@
     </row>
     <row r="11" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -8788,29 +8938,29 @@
     </row>
     <row r="13" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8818,13 +8968,13 @@
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -8832,13 +8982,13 @@
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8846,13 +8996,13 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -8868,29 +9018,29 @@
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -8898,29 +9048,29 @@
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
